--- a/results.xlsx
+++ b/results.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\C++\BigInt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993011B4-BE5F-4FC3-914D-683F84982053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5A0D1-10E8-47E4-89EA-748D32036E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25395" yWindow="2670" windowWidth="25590" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>C++</t>
   </si>
@@ -39,10 +48,16 @@
     <t>Trial 2</t>
   </si>
   <si>
-    <t>Addition 4 digits</t>
-  </si>
-  <si>
     <t>NOTE: seed = trial number</t>
+  </si>
+  <si>
+    <t>Addition 10 digits</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -369,54 +384,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="163" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>17.304889440536499</v>
+      </c>
+      <c r="D3">
+        <v>21.719715595245301</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>19.512302517890902</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>17.304889440536499</v>
+      </c>
+      <c r="I3">
+        <v>21.719715595245301</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(G3:J3)</f>
+        <v>19.512302517890902</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>17.304889440536499</v>
-      </c>
-      <c r="D2">
-        <v>21.719715595245301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>3.1294200000000001</v>
       </c>
-      <c r="D3">
+      <c r="D4">
+        <v>2.7610399999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.1294200000000001</v>
+      </c>
+      <c r="I4">
         <v>2.7610399999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
